--- a/ExcelData/outPutExcel.xlsx
+++ b/ExcelData/outPutExcel.xlsx
@@ -43,7 +43,7 @@
     <t>DD CAR EXPERTS</t>
   </si>
   <si>
-    <t>07942686412</t>
+    <t>07947420103</t>
   </si>
   <si>
     <t>86 Ratings</t>
@@ -52,7 +52,7 @@
     <t>MyTVS MultiBrand Car Service</t>
   </si>
   <si>
-    <t>07947117588</t>
+    <t>07947147868</t>
   </si>
   <si>
     <t>4.9</t>
@@ -64,7 +64,7 @@
     <t>Popular Car Wash</t>
   </si>
   <si>
-    <t>07947415831</t>
+    <t>07947419680</t>
   </si>
   <si>
     <t>1,687 Ratings</t>
@@ -73,7 +73,7 @@
     <t>Futurex Car Care</t>
   </si>
   <si>
-    <t>07947426725</t>
+    <t>07947148652</t>
   </si>
   <si>
     <t>627 Ratings</t>

--- a/ExcelData/outPutExcel.xlsx
+++ b/ExcelData/outPutExcel.xlsx
@@ -43,7 +43,7 @@
     <t>DD CAR EXPERTS</t>
   </si>
   <si>
-    <t>07947420103</t>
+    <t>07947432706</t>
   </si>
   <si>
     <t>86 Ratings</t>
@@ -52,19 +52,19 @@
     <t>MyTVS MultiBrand Car Service</t>
   </si>
   <si>
-    <t>07947147868</t>
+    <t>07947425810</t>
   </si>
   <si>
     <t>4.9</t>
   </si>
   <si>
-    <t>24,489 Ratings</t>
+    <t>24,490 Ratings</t>
   </si>
   <si>
     <t>Popular Car Wash</t>
   </si>
   <si>
-    <t>07947419680</t>
+    <t>07947122405</t>
   </si>
   <si>
     <t>1,687 Ratings</t>
@@ -73,7 +73,7 @@
     <t>Futurex Car Care</t>
   </si>
   <si>
-    <t>07947148652</t>
+    <t>07947110998</t>
   </si>
   <si>
     <t>627 Ratings</t>

--- a/ExcelData/outPutExcel.xlsx
+++ b/ExcelData/outPutExcel.xlsx
@@ -52,7 +52,7 @@
     <t>MyTVS MultiBrand Car Service</t>
   </si>
   <si>
-    <t>07947425810</t>
+    <t>07947426536</t>
   </si>
   <si>
     <t>4.9</t>
@@ -64,7 +64,7 @@
     <t>Popular Car Wash</t>
   </si>
   <si>
-    <t>07947122405</t>
+    <t>07947415269</t>
   </si>
   <si>
     <t>1,687 Ratings</t>
@@ -73,7 +73,7 @@
     <t>Futurex Car Care</t>
   </si>
   <si>
-    <t>07947110998</t>
+    <t>07947134101</t>
   </si>
   <si>
     <t>627 Ratings</t>
@@ -91,7 +91,7 @@
     <t>Relevance</t>
   </si>
   <si>
-    <t>Locker Facility</t>
+    <t>Amenities</t>
   </si>
   <si>
     <t>Open Now</t>
@@ -106,7 +106,7 @@
     <t>Jd Verified</t>
   </si>
   <si>
-    <t>4.5+</t>
+    <t>Ratings</t>
   </si>
   <si>
     <t>Deals</t>
